--- a/docs/additional_material/LENS4PEMS_Responses_Questionnaire.xlsx
+++ b/docs/additional_material/LENS4PEMS_Responses_Questionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrea/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dati-Andrea\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF272492-8522-5046-8C2C-E59C889EEE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FD10EE-94C1-48E7-A325-A3F5D91A60DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="64">
   <si>
     <t>Timestamp</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Requirements engineer</t>
+  </si>
+  <si>
+    <t>XXXX</t>
   </si>
 </sst>
 </file>
@@ -557,19 +560,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V28" sqref="V28"/>
+      <selection pane="bottomLeft" activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="18.83203125" customWidth="1"/>
+    <col min="1" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="27" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45049.307937152778</v>
       </c>
@@ -678,7 +683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45049.526971550928</v>
       </c>
@@ -722,7 +727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45052.256767800922</v>
       </c>
@@ -771,9 +776,11 @@
       <c r="T4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45052.68144763889</v>
       </c>
@@ -822,9 +829,11 @@
       <c r="T5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45055.715484212968</v>
       </c>
@@ -870,9 +879,11 @@
       <c r="T6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45061.699242488423</v>
       </c>
@@ -915,9 +926,11 @@
       <c r="T7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45071.627385474538</v>
       </c>
@@ -961,7 +974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45071.627560428242</v>
       </c>
@@ -1005,7 +1018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45071.719697141205</v>
       </c>
@@ -1051,9 +1064,11 @@
       <c r="T10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45071.784181087962</v>
       </c>
@@ -1109,7 +1124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45073.012319583329</v>
       </c>
@@ -1153,7 +1168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45076.512447638888</v>
       </c>
@@ -1202,9 +1217,11 @@
       <c r="T13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45077.734146782408</v>
       </c>
@@ -1263,7 +1280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45084.426941458332</v>
       </c>
@@ -1309,9 +1326,11 @@
       <c r="T15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45086.429756134261</v>
       </c>
@@ -1356,7 +1375,7 @@
       </c>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45092.451776331014</v>
       </c>
@@ -1400,7 +1419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45092.539213043987</v>
       </c>
@@ -1446,9 +1465,11 @@
       <c r="T18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45092.848972743057</v>
       </c>
@@ -1492,7 +1513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45092.921509814812</v>
       </c>
@@ -1536,7 +1557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45093.391845358798</v>
       </c>
@@ -1580,7 +1601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45105.559225543984</v>
       </c>
@@ -1638,9 +1659,11 @@
       <c r="T22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45120.418292337963</v>
       </c>
@@ -1689,9 +1712,11 @@
       <c r="T23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45126.488932592591</v>
       </c>
@@ -1734,9 +1759,11 @@
       <c r="T24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45132.718192592598</v>
       </c>
@@ -1779,9 +1806,11 @@
       <c r="T25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45132.718871805555</v>
       </c>
@@ -1824,7 +1853,56 @@
       <c r="T26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U26" s="1"/>
+      <c r="U26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>45141.428112534719</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>4</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
